--- a/src/WebMarket/WebMarket/App_Data/TimeRelay.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/TimeRelay.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="TimeRelay" sheetId="1" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -125,6 +126,15 @@
   </si>
   <si>
     <t>Количество точек Включения-Выключения=max 16&amp;Выход=1 реле (max 10A(250В))&amp;Потребляемая мощность=не более 3 Вт&amp;Корпус=кріплення на DIN рейку</t>
+  </si>
+  <si>
+    <t>07.24.2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01.08.2012</t>
+  </si>
+  <si>
+    <t>Updated prices</t>
   </si>
 </sst>
 </file>
@@ -466,7 +476,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +558,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -583,7 +593,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -618,7 +628,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -653,7 +663,7 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -687,4 +697,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/WebMarket/WebMarket/App_Data/TimeRelay.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/TimeRelay.xlsx
@@ -26,9 +26,6 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>IsAvailable</t>
-  </si>
-  <si>
     <t>Photo</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>Updated prices</t>
+  </si>
+  <si>
+    <t>Availability</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,78 +496,78 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" t="s">
         <v>27</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>297</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -579,30 +579,30 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>297</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -614,30 +614,30 @@
         <v>5</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
         <v>32</v>
-      </c>
-      <c r="R3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>335</v>
       </c>
-      <c r="D4" t="b">
-        <v>1</v>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -649,30 +649,30 @@
         <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>335</v>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -684,13 +684,13 @@
         <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -711,16 +711,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/WebMarket/WebMarket/App_Data/TimeRelay.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/TimeRelay.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -32,12 +32,6 @@
     <t>Producer</t>
   </si>
   <si>
-    <t>IsTopBuyed</t>
-  </si>
-  <si>
-    <t>IsNew</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -135,6 +129,9 @@
   </si>
   <si>
     <t>Availability</t>
+  </si>
+  <si>
+    <t>DisplayClass</t>
   </si>
 </sst>
 </file>
@@ -473,19 +470,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -505,57 +502,54 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
         <v>24</v>
       </c>
       <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>26</v>
-      </c>
-      <c r="S1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
       </c>
       <c r="B2">
         <v>297</v>
@@ -564,33 +558,33 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>12</v>
-      </c>
-      <c r="K2">
         <v>5</v>
       </c>
-      <c r="O2" t="s">
-        <v>25</v>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>297</v>
@@ -599,33 +593,33 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J3">
-        <v>12</v>
-      </c>
-      <c r="K3">
         <v>5</v>
       </c>
-      <c r="O3" t="s">
-        <v>25</v>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
       </c>
       <c r="Q3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>335</v>
@@ -634,33 +628,33 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J4">
-        <v>12</v>
-      </c>
-      <c r="K4">
         <v>5</v>
       </c>
-      <c r="O4" t="s">
-        <v>25</v>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" t="s">
+        <v>31</v>
       </c>
       <c r="Q4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>335</v>
@@ -669,28 +663,28 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>12</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="O5" t="s">
-        <v>25</v>
+      <c r="P5" t="s">
+        <v>32</v>
       </c>
       <c r="Q5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -711,16 +705,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
